--- a/Data/TestData/test.xlsx
+++ b/Data/TestData/test.xlsx
@@ -288,7 +288,7 @@
   </sheetPr>
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B10" colorId="64" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B8" colorId="64" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -365,7 +365,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="86.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>6</v>
       </c>

--- a/Data/TestData/test.xlsx
+++ b/Data/TestData/test.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t xml:space="preserve">questionId</t>
   </si>
@@ -32,72 +32,64 @@
     <t xml:space="preserve">answer</t>
   </si>
   <si>
-    <t xml:space="preserve">As Varun and Gauri approached the magical ship, they found some skeptical marks on the ship: &lt;br/&gt;&lt;pre&gt;"-... . --. .. -."&lt;/pre&gt; They pondered, understanding these signs would set sail to uncover treasure. What word would unlock the ship to their journey?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BEGIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Woahhh, Our ship has unlocked! Now, our hunters take charge of the ship. But uh oh, the ship's control panel is asking a password, which is stored on this website: &lt;a href="https://th-getpass.netlify.app/" target="blank"&gt;Get Pass&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bhupindar Jogi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The control panel was unlocked but the voyage proved lengthy, and feeling fatigued, Gauri sought a break. Opting for some amusement, she logged onto Leetcode to participate in Weekly Contest 381. To her delight, she secured the 4811th position. Can you guess her username? (Asking for a friend ;) )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">its_me_again</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nice programmer she is! As they sailed through the ocean, Varun and Gauri came across a ship which had the following flag:&lt;br/&gt;
-&lt;a href="https://ibb.co/cyNhC08"&gt;&lt;img src="https://i.ibb.co/x2MqfWg/6cr5dynoi.jpg" alt="6cr5dynoi" border="0"&gt;&lt;/a&gt;. Can you see how many cannons are there on that ship?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As they followed the path to their mystical treasure, there map started to vanish. Can you tell them which direction they should move to get close to the treasure? &lt;a href="https://th-map.netlify.app/" target="blank"&gt;The Map&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deepsea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As the map revealed the directions, Varun and Gauri directed the magical ship to submerge into the deep sea where the treasure lay hidden. Suddenly they came across two fishes, one of them was finding his lost child and the other one was helping him. They were wearing a strange goggle which had a name on it. As per their knowledge, the lost child was with the person who owned that goggle. The fishes were not able to read. So, will you please read them the Last Name of the person who owns the goggle? (Ans in lowercase)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sherman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;div style="display:flex; flex-wrap:wrap; color:white"&gt;After helping Marlin, Varun and Gauri found an ancient submarine in which the actual treasure was hidden. When they were having a precise look at the submarine, they saw something written on one of the windows: &lt;br/&gt;
-&lt;pre style="color:white"&gt;nisokanattar noma nohkanaham peht gnurk 
-kolidaham ayahtuy arahtniham 
-inahtahctar tarahppon pohp 
-nahtasaham tewinahctarmodu morirub 
-natawa namip noma  
-tisarp makunastiw ayittahtakkas tihtas&lt;/pre&gt;
-&lt;br/&gt;
-&lt;div style="color:white"&gt;
-Can you ascertain the origin of the submarine? (Ans in lowercase)
-&lt;/div&gt;&lt;/div&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bangkok</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When they entered into the submarine, Gauri found an old stick somewhere in the submarine. It looked like this &lt;br/&gt;
-&lt;a href="https://imgbb.com/"&gt;&lt;img src="https://i.ibb.co/b3FByjc/meow.png" alt="meow" border="0"&gt;&lt;/a&gt;.
-&lt;br/&gt;
-While clutching the stick, Gauri uttered words within the dim confines of the submarine, causing the entire space to illuminate with an eerie blue glow. Did you hear what Gauri said? (Ans in lowercase)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lumos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Under the enchanting glow of the wand's light, they discovered the treasure chest, guarded by two layers of security. The initial layer required them to navigate through several paths to reach their objective. Their exploration began at this point: &lt;a href="https://start-from-here.netlify.app/" target="blank"&gt;The ENTRY&lt;/a&gt;.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">meow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Upon successfully bypassing the initial security layer, Varun and Gauri were presented with the following prompt for the final key to access the treasure: "A DASH" This time, they had only one opportunity to unlock the chest. Failure would result in the loss of the entire treasure. Can you decode the key?</t>
+    <t xml:space="preserve">In the room where silence speaks, I hang on the wall and tick without a break. I witness your mornings, remind you of meals, and still go on when you're asleep. I have two hands but can't hold anything, and I'm always on the run. You glance at me a hundred times a day but never truly notice me. What am I?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">clock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I'm found in a case but never in court. I have many teeth but never bite. You press me when you’re happy, angry, or in search of words. Despite being full of letters, I never send mail. Look carefully — I might be right under your fingers. What am I?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">keyboard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I live in the kitchen, but I'm not food. I have a mouth, yet I don't speak, and I wear a lid like a hat. When you’re thirsty or serving tea, I’m your best companion. Sometimes I whistle when I’m excited. What am I?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kettle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">By day, I sleep beneath your feet, unnoticed and silent. But by night, I carry your secrets and your tired steps. I'm made of threads, colors, and warmth. You may clean me or walk over me, but rarely do you stop to see me. What am I?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">carpet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I'm not a bird, but I can fly across rooms. I bring a breeze on a warm day, and I spin in circles without getting dizzy. You switch me on when the sun gets too harsh, and I keep going as long as you need me. Look up — I might be above you. What am I?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I open wide but never eat, and when I close, I shut the world out. People knock before coming through me, and I stand tall between rooms and worlds. Sometimes I'm wooden, sometimes glass, and I always lead to something new. What am I?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">door</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I'm soft and cozy and love to hug. I’m where dreams are made and rest is found. You lie on me after a long day, and I never complain when you jump or sleep. I may have pillows and blankets as friends. What am I?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I shine without a flame, and I can be small or tall. When it's dark, you turn me on, and suddenly the world is visible again. Sometimes I stand, sometimes I hang, but my job is always to chase away the shadows. What am I?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lamp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You fill me up when you’re tired, and I make your energy bounce back. I'm full of flavors and sometimes bubbles. Hot or cold, I'm served in many ways. Without me, meals feel incomplete. What am I?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">drink</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I’m in every home, silent but wise. With pages and covers, I hold stories and truths. I never move on my own, but I can take you to faraway lands in an instant. Some say I’m old-fashioned, but I’m still magical. What am I?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">book</t>
   </si>
 </sst>
 </file>
@@ -288,11 +280,11 @@
   </sheetPr>
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B8" colorId="64" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="76"/>
@@ -310,7 +302,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
@@ -350,8 +342,8 @@
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="1" t="n">
-        <v>32</v>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -359,10 +351,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -370,10 +362,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="216" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -381,10 +373,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="114.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -392,10 +384,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="57" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -403,10 +395,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="57" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -414,10 +406,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -467,7 +459,7 @@
       <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
